--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Reln-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Reln-Itga3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2638773333333334</v>
+        <v>0.041827</v>
       </c>
       <c r="H2">
-        <v>0.791632</v>
+        <v>0.125481</v>
       </c>
       <c r="I2">
-        <v>0.0472992197617186</v>
+        <v>0.006279874897961605</v>
       </c>
       <c r="J2">
-        <v>0.04729921976171859</v>
+        <v>0.006279874897961606</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N2">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O2">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P2">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q2">
-        <v>1.627994638405334</v>
+        <v>0.114255846183</v>
       </c>
       <c r="R2">
-        <v>14.651951745648</v>
+        <v>1.028302615647</v>
       </c>
       <c r="S2">
-        <v>0.02463316010881265</v>
+        <v>0.003483949585258547</v>
       </c>
       <c r="T2">
-        <v>0.02463316010881264</v>
+        <v>0.003483949585258548</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2638773333333334</v>
+        <v>0.041827</v>
       </c>
       <c r="H3">
-        <v>0.791632</v>
+        <v>0.125481</v>
       </c>
       <c r="I3">
-        <v>0.0472992197617186</v>
+        <v>0.006279874897961605</v>
       </c>
       <c r="J3">
-        <v>0.04729921976171859</v>
+        <v>0.006279874897961606</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,28 +614,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N3">
         <v>0.204412</v>
       </c>
       <c r="O3">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P3">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q3">
-        <v>0.01797989782044445</v>
+        <v>0.002849980241333333</v>
       </c>
       <c r="R3">
-        <v>0.161819080384</v>
+        <v>0.025649822172</v>
       </c>
       <c r="S3">
-        <v>0.0002720535383242627</v>
+        <v>8.6903102217501E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002720535383242626</v>
+        <v>8.690310221750103E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2638773333333334</v>
+        <v>0.041827</v>
       </c>
       <c r="H4">
-        <v>0.791632</v>
+        <v>0.125481</v>
       </c>
       <c r="I4">
-        <v>0.0472992197617186</v>
+        <v>0.006279874897961605</v>
       </c>
       <c r="J4">
-        <v>0.04729921976171859</v>
+        <v>0.006279874897961606</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N4">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P4">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q4">
-        <v>1.480009942935111</v>
+        <v>0.08884216531066666</v>
       </c>
       <c r="R4">
-        <v>13.320089486416</v>
+        <v>0.799579487796</v>
       </c>
       <c r="S4">
-        <v>0.0223940061145817</v>
+        <v>0.002709022210485557</v>
       </c>
       <c r="T4">
-        <v>0.02239400611458169</v>
+        <v>0.002709022210485557</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>3.383742</v>
       </c>
       <c r="I5">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="J5">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N5">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O5">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P5">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q5">
-        <v>6.958680085882</v>
+        <v>3.081042591905999</v>
       </c>
       <c r="R5">
-        <v>62.628120772938</v>
+        <v>27.729383327154</v>
       </c>
       <c r="S5">
-        <v>0.1052916739759306</v>
+        <v>0.09394877740472202</v>
       </c>
       <c r="T5">
-        <v>0.1052916739759306</v>
+        <v>0.09394877740472206</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>3.383742</v>
       </c>
       <c r="I6">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="J6">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,28 +800,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N6">
         <v>0.204412</v>
       </c>
       <c r="O6">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P6">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q6">
-        <v>0.07685305218933333</v>
+        <v>0.07685305218933332</v>
       </c>
       <c r="R6">
-        <v>0.691677469704</v>
+        <v>0.6916774697039999</v>
       </c>
       <c r="S6">
-        <v>0.001162862269181156</v>
+        <v>0.002343443843320114</v>
       </c>
       <c r="T6">
-        <v>0.001162862269181156</v>
+        <v>0.002343443843320115</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>3.383742</v>
       </c>
       <c r="I7">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="J7">
-        <v>0.2021751981665183</v>
+        <v>0.1693441751896972</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N7">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P7">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q7">
-        <v>6.326136139427332</v>
+        <v>2.395732948674666</v>
       </c>
       <c r="R7">
-        <v>56.935225254846</v>
+        <v>21.561596538072</v>
       </c>
       <c r="S7">
-        <v>0.09572066192140652</v>
+        <v>0.07305195394165505</v>
       </c>
       <c r="T7">
-        <v>0.09572066192140651</v>
+        <v>0.07305195394165506</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.187102666666667</v>
+        <v>5.490742</v>
       </c>
       <c r="H8">
-        <v>12.561308</v>
+        <v>16.472226</v>
       </c>
       <c r="I8">
-        <v>0.7505255820717631</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="J8">
-        <v>0.750525582071763</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.169513000000001</v>
+        <v>2.731629</v>
       </c>
       <c r="N8">
-        <v>18.508539</v>
+        <v>8.194887</v>
       </c>
       <c r="O8">
-        <v>0.5207942167525854</v>
+        <v>0.5547800938501829</v>
       </c>
       <c r="P8">
-        <v>0.5207942167525853</v>
+        <v>0.554780093850183</v>
       </c>
       <c r="Q8">
-        <v>25.83238433433467</v>
+        <v>14.998670078718</v>
       </c>
       <c r="R8">
-        <v>232.491459009012</v>
+        <v>134.988030708462</v>
       </c>
       <c r="S8">
-        <v>0.3908693826678422</v>
+        <v>0.4573473668602023</v>
       </c>
       <c r="T8">
-        <v>0.390869382667842</v>
+        <v>0.4573473668602024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.187102666666667</v>
+        <v>5.490742</v>
       </c>
       <c r="H9">
-        <v>12.561308</v>
+        <v>16.472226</v>
       </c>
       <c r="I9">
-        <v>0.7505255820717631</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="J9">
-        <v>0.750525582071763</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06813733333333334</v>
+        <v>0.06813733333333333</v>
       </c>
       <c r="N9">
         <v>0.204412</v>
       </c>
       <c r="O9">
-        <v>0.00575175530790569</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="P9">
-        <v>0.005751755307905689</v>
+        <v>0.01383834927121065</v>
       </c>
       <c r="Q9">
-        <v>0.2852980100995556</v>
+        <v>0.3741245179013333</v>
       </c>
       <c r="R9">
-        <v>2.567682090896</v>
+        <v>3.367120661112</v>
       </c>
       <c r="S9">
-        <v>0.004316839500400272</v>
+        <v>0.01140800232567303</v>
       </c>
       <c r="T9">
-        <v>0.004316839500400269</v>
+        <v>0.01140800232567303</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.187102666666667</v>
+        <v>5.490742</v>
       </c>
       <c r="H10">
-        <v>12.561308</v>
+        <v>16.472226</v>
       </c>
       <c r="I10">
-        <v>0.7505255820717631</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="J10">
-        <v>0.750525582071763</v>
+        <v>0.8243759499123412</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.608704333333333</v>
+        <v>2.124038666666666</v>
       </c>
       <c r="N10">
-        <v>16.826113</v>
+        <v>6.372115999999999</v>
       </c>
       <c r="O10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="P10">
-        <v>0.473454027939509</v>
+        <v>0.4313815568786064</v>
       </c>
       <c r="Q10">
-        <v>23.48422087064489</v>
+        <v>11.66254831669067</v>
       </c>
       <c r="R10">
-        <v>211.357987835804</v>
+        <v>104.962934850216</v>
       </c>
       <c r="S10">
-        <v>0.3553393599035208</v>
+        <v>0.3556205807264658</v>
       </c>
       <c r="T10">
-        <v>0.3553393599035207</v>
+        <v>0.3556205807264658</v>
       </c>
     </row>
   </sheetData>
